--- a/Excel2Json/Test/hero_dialog.xlsx
+++ b/Excel2Json/Test/hero_dialog.xlsx
@@ -61,10 +61,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -119,7 +115,11 @@
     <t>hero_1100201|hero_1100202|hero_1100203</t>
   </si>
   <si>
-    <t>vector&lt;string&gt;</t>
+    <t>id[100]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;string;32&gt;;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -639,29 +639,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -686,10 +686,10 @@
         <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -697,10 +697,10 @@
         <v>109</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -708,18 +708,18 @@
         <v>110</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
